--- a/AverTest/test_InvoiceEntry/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_InvoiceEntry/PDFFileNameData/FileName.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E2"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_ElementsWorking_16_February_2022_12_29PM.pdf</t>
+          <t>test_ElementsWorking_03_March_2022_08_01PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This test scenario is to verify all the Working of Elements at Communication log page</t>
+          <t>This test scenario is to verify all the Working of Elements at Invoice Entry page</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_InvoiceEntryElements_18_February_2022_02_10PM.pdf</t>
+          <t>test_InvoiceEntryElements_04_March_2022_01_50PM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -545,11 +545,38 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_CreateClientWorking</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_CreateClientWorking_04_March_2022_06_17PM.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test_CreateClient</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>This test scenario is to verify the Working of Create new client process</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
